--- a/_Out/NFDataCfg/Excel_Ini/EffectData.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/EffectData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10342"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10343"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -419,19 +424,16 @@
   </si>
   <si>
     <t>PlayerAtt60</t>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -445,159 +447,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,194 +467,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -927,251 +592,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1216,61 +639,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1278,14 +653,20 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1612,38 +993,37 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AG69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A75" sqref="$A70:$XFD75"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="46.7345132743363" customWidth="1"/>
-    <col min="2" max="2" width="16.3362831858407" customWidth="1"/>
-    <col min="3" max="4" width="9.33628318584071" customWidth="1"/>
-    <col min="5" max="10" width="11.6637168141593" customWidth="1"/>
+    <col min="1" max="1" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="15.3362831858407" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="29" width="16.5044247787611" customWidth="1"/>
-    <col min="30" max="30" width="10.3362831858407" customWidth="1"/>
+    <col min="15" max="29" width="16.53125" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="33" width="12.1681415929204" customWidth="1"/>
+    <col min="32" max="33" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:33">
+    <row r="1" spans="1:33" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1124,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:33">
+    <row r="2" spans="1:33" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
@@ -1845,7 +1225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:33">
+    <row r="3" spans="1:33" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
@@ -1946,7 +1326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:33">
+    <row r="4" spans="1:33" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2047,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:33">
+    <row r="5" spans="1:33" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>37</v>
       </c>
@@ -2148,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:33">
+    <row r="6" spans="1:33" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2249,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:33">
+    <row r="7" spans="1:33" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -2350,312 +1730,312 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:33">
+    <row r="8" spans="1:33" s="3" customFormat="1">
       <c r="A8" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="3" customFormat="1">
+      <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3" t="b">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:33">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:33" s="4" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X9" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AA9" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AB9" s="11" t="s">
+      <c r="AB10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AC10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="AD9" s="11" t="s">
+      <c r="AD10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AE10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AF9" s="11" t="s">
+      <c r="AF10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AG9" s="11" t="s">
+      <c r="AG10" s="11" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>50</v>
-      </c>
-      <c r="O10">
-        <v>50</v>
-      </c>
-      <c r="P10">
-        <v>55000</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>50</v>
-      </c>
-      <c r="S10">
-        <v>50</v>
-      </c>
-      <c r="T10">
-        <v>50</v>
-      </c>
-      <c r="U10">
-        <v>50</v>
-      </c>
-      <c r="V10">
-        <v>50</v>
-      </c>
-      <c r="W10">
-        <v>50</v>
-      </c>
-      <c r="X10">
-        <v>50</v>
-      </c>
-      <c r="Y10">
-        <v>50</v>
-      </c>
-      <c r="Z10">
-        <v>50</v>
-      </c>
-      <c r="AA10">
-        <v>50</v>
-      </c>
-      <c r="AB10">
-        <v>50</v>
-      </c>
-      <c r="AC10">
-        <v>50</v>
-      </c>
-      <c r="AD10">
-        <v>50</v>
-      </c>
-      <c r="AE10">
-        <v>50</v>
-      </c>
-      <c r="AF10">
-        <v>50</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2667,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2694,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O11">
         <v>50</v>
@@ -2756,7 +2136,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2768,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F12">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2795,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="O12">
         <v>50</v>
@@ -2857,7 +2237,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2869,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F13">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2896,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="O13">
         <v>50</v>
@@ -2958,7 +2338,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2970,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F14">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2997,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="O14">
         <v>50</v>
@@ -3059,7 +2439,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3071,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="F15">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -3098,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="O15">
         <v>50</v>
@@ -3160,7 +2540,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3172,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="F16">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -3199,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="O16">
         <v>50</v>
@@ -3261,7 +2641,7 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3273,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="F17">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -3300,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="O17">
         <v>50</v>
@@ -3362,7 +2742,7 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3374,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="F18">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -3401,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="O18">
         <v>50</v>
@@ -3463,7 +2843,7 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3475,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="F19">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3502,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>950</v>
+        <v>850</v>
       </c>
       <c r="O19">
         <v>50</v>
@@ -3564,7 +2944,7 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3576,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="F20">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3603,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="O20">
         <v>50</v>
@@ -3665,7 +3045,7 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3677,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="F21">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3704,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1150</v>
+        <v>1050</v>
       </c>
       <c r="O21">
         <v>50</v>
@@ -3766,7 +3146,7 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3778,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="F22">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3805,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1250</v>
+        <v>1150</v>
       </c>
       <c r="O22">
         <v>50</v>
@@ -3867,7 +3247,7 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3879,10 +3259,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="F23">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3906,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1350</v>
+        <v>1250</v>
       </c>
       <c r="O23">
         <v>50</v>
@@ -3968,7 +3348,7 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3980,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="F24">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4007,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1450</v>
+        <v>1350</v>
       </c>
       <c r="O24">
         <v>50</v>
@@ -4069,7 +3449,7 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4081,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="F25">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4108,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1550</v>
+        <v>1450</v>
       </c>
       <c r="O25">
         <v>50</v>
@@ -4170,7 +3550,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4182,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="F26">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4209,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1650</v>
+        <v>1550</v>
       </c>
       <c r="O26">
         <v>50</v>
@@ -4271,7 +3651,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4283,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="F27">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4310,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1750</v>
+        <v>1650</v>
       </c>
       <c r="O27">
         <v>50</v>
@@ -4372,7 +3752,7 @@
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4384,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="F28">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4411,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="O28">
         <v>50</v>
@@ -4473,7 +3853,7 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4485,10 +3865,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="F29">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4512,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1950</v>
+        <v>1850</v>
       </c>
       <c r="O29">
         <v>50</v>
@@ -4574,7 +3954,7 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4586,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="F30">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4613,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2050</v>
+        <v>1950</v>
       </c>
       <c r="O30">
         <v>50</v>
@@ -4675,7 +4055,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4687,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="F31">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -4714,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2150</v>
+        <v>2050</v>
       </c>
       <c r="O31">
         <v>50</v>
@@ -4776,7 +4156,7 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4788,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="F32">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4815,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2250</v>
+        <v>2150</v>
       </c>
       <c r="O32">
         <v>50</v>
@@ -4877,7 +4257,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4889,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="F33">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -4916,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="O33">
         <v>50</v>
@@ -4978,7 +4358,7 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4990,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="F34">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5017,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2450</v>
+        <v>2350</v>
       </c>
       <c r="O34">
         <v>50</v>
@@ -5079,7 +4459,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5091,10 +4471,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="F35">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5118,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2550</v>
+        <v>2450</v>
       </c>
       <c r="O35">
         <v>50</v>
@@ -5180,7 +4560,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5192,10 +4572,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="F36">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5219,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2650</v>
+        <v>2550</v>
       </c>
       <c r="O36">
         <v>50</v>
@@ -5281,7 +4661,7 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5293,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="F37">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5320,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2750</v>
+        <v>2650</v>
       </c>
       <c r="O37">
         <v>50</v>
@@ -5382,7 +4762,7 @@
     </row>
     <row r="38" spans="1:33">
       <c r="A38" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5394,10 +4774,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="F38">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5421,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="O38">
         <v>50</v>
@@ -5483,7 +4863,7 @@
     </row>
     <row r="39" spans="1:33">
       <c r="A39" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5495,10 +4875,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="F39">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5522,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2950</v>
+        <v>2850</v>
       </c>
       <c r="O39">
         <v>50</v>
@@ -5584,7 +4964,7 @@
     </row>
     <row r="40" spans="1:33">
       <c r="A40" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5596,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="F40">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5623,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3050</v>
+        <v>2950</v>
       </c>
       <c r="O40">
         <v>50</v>
@@ -5685,7 +5065,7 @@
     </row>
     <row r="41" spans="1:33">
       <c r="A41" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5697,10 +5077,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="F41">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5724,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3150</v>
+        <v>3050</v>
       </c>
       <c r="O41">
         <v>50</v>
@@ -5786,7 +5166,7 @@
     </row>
     <row r="42" spans="1:33">
       <c r="A42" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5798,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="F42">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5825,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>3250</v>
+        <v>3150</v>
       </c>
       <c r="O42">
         <v>50</v>
@@ -5887,7 +5267,7 @@
     </row>
     <row r="43" spans="1:33">
       <c r="A43" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5899,10 +5279,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="F43">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5926,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>3350</v>
+        <v>3250</v>
       </c>
       <c r="O43">
         <v>50</v>
@@ -5988,7 +5368,7 @@
     </row>
     <row r="44" spans="1:33">
       <c r="A44" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -6000,10 +5380,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="F44">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -6027,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>3450</v>
+        <v>3350</v>
       </c>
       <c r="O44">
         <v>50</v>
@@ -6089,7 +5469,7 @@
     </row>
     <row r="45" spans="1:33">
       <c r="A45" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -6101,10 +5481,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="F45">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -6128,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="O45">
         <v>50</v>
@@ -6190,7 +5570,7 @@
     </row>
     <row r="46" spans="1:33">
       <c r="A46" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6202,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="F46">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -6229,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>3650</v>
+        <v>3550</v>
       </c>
       <c r="O46">
         <v>50</v>
@@ -6291,7 +5671,7 @@
     </row>
     <row r="47" spans="1:33">
       <c r="A47" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6303,10 +5683,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="F47">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -6330,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>3750</v>
+        <v>3650</v>
       </c>
       <c r="O47">
         <v>50</v>
@@ -6392,7 +5772,7 @@
     </row>
     <row r="48" spans="1:33">
       <c r="A48" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6404,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="F48">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -6431,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>3850</v>
+        <v>3750</v>
       </c>
       <c r="O48">
         <v>50</v>
@@ -6493,7 +5873,7 @@
     </row>
     <row r="49" spans="1:33">
       <c r="A49" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6505,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="F49">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -6532,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="O49">
         <v>50</v>
@@ -6594,7 +5974,7 @@
     </row>
     <row r="50" spans="1:33">
       <c r="A50" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6606,10 +5986,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="F50">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6633,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="O50">
         <v>50</v>
@@ -6695,7 +6075,7 @@
     </row>
     <row r="51" spans="1:33">
       <c r="A51" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6707,10 +6087,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="F51">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -6734,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="O51">
         <v>50</v>
@@ -6796,7 +6176,7 @@
     </row>
     <row r="52" spans="1:33">
       <c r="A52" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6808,10 +6188,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="F52">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -6835,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>4250</v>
+        <v>4150</v>
       </c>
       <c r="O52">
         <v>50</v>
@@ -6897,7 +6277,7 @@
     </row>
     <row r="53" spans="1:33">
       <c r="A53" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6909,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="F53">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6936,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <v>4350</v>
+        <v>4250</v>
       </c>
       <c r="O53">
         <v>50</v>
@@ -6998,7 +6378,7 @@
     </row>
     <row r="54" spans="1:33">
       <c r="A54" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7010,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="F54">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7037,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>4450</v>
+        <v>4350</v>
       </c>
       <c r="O54">
         <v>50</v>
@@ -7099,7 +6479,7 @@
     </row>
     <row r="55" spans="1:33">
       <c r="A55" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7111,10 +6491,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="F55">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -7138,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>4550</v>
+        <v>4450</v>
       </c>
       <c r="O55">
         <v>50</v>
@@ -7200,7 +6580,7 @@
     </row>
     <row r="56" spans="1:33">
       <c r="A56" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7212,10 +6592,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="F56">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -7239,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>4650</v>
+        <v>4550</v>
       </c>
       <c r="O56">
         <v>50</v>
@@ -7301,7 +6681,7 @@
     </row>
     <row r="57" spans="1:33">
       <c r="A57" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7313,10 +6693,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="F57">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -7340,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>4750</v>
+        <v>4650</v>
       </c>
       <c r="O57">
         <v>50</v>
@@ -7402,7 +6782,7 @@
     </row>
     <row r="58" spans="1:33">
       <c r="A58" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7414,10 +6794,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="F58">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7441,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>4850</v>
+        <v>4750</v>
       </c>
       <c r="O58">
         <v>50</v>
@@ -7503,7 +6883,7 @@
     </row>
     <row r="59" spans="1:33">
       <c r="A59" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7515,10 +6895,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="F59">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7542,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <v>4950</v>
+        <v>4850</v>
       </c>
       <c r="O59">
         <v>50</v>
@@ -7604,7 +6984,7 @@
     </row>
     <row r="60" spans="1:33">
       <c r="A60" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7616,10 +6996,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="F60">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -7643,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>5050</v>
+        <v>4950</v>
       </c>
       <c r="O60">
         <v>50</v>
@@ -7705,7 +7085,7 @@
     </row>
     <row r="61" spans="1:33">
       <c r="A61" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7717,10 +7097,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="F61">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7744,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>5150</v>
+        <v>5050</v>
       </c>
       <c r="O61">
         <v>50</v>
@@ -7806,7 +7186,7 @@
     </row>
     <row r="62" spans="1:33">
       <c r="A62" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7818,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="F62">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -7845,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <v>5250</v>
+        <v>5150</v>
       </c>
       <c r="O62">
         <v>50</v>
@@ -7907,7 +7287,7 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7919,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="F63">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -7946,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>5350</v>
+        <v>5250</v>
       </c>
       <c r="O63">
         <v>50</v>
@@ -8008,7 +7388,7 @@
     </row>
     <row r="64" spans="1:33">
       <c r="A64" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8020,10 +7400,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="F64">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -8047,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>5450</v>
+        <v>5350</v>
       </c>
       <c r="O64">
         <v>50</v>
@@ -8109,7 +7489,7 @@
     </row>
     <row r="65" spans="1:33">
       <c r="A65" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8121,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="F65">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -8148,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5550</v>
+        <v>5450</v>
       </c>
       <c r="O65">
         <v>50</v>
@@ -8210,7 +7590,7 @@
     </row>
     <row r="66" spans="1:33">
       <c r="A66" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -8222,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="F66">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -8249,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>5650</v>
+        <v>5550</v>
       </c>
       <c r="O66">
         <v>50</v>
@@ -8311,7 +7691,7 @@
     </row>
     <row r="67" spans="1:33">
       <c r="A67" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8323,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="F67">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -8350,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>5750</v>
+        <v>5650</v>
       </c>
       <c r="O67">
         <v>50</v>
@@ -8412,7 +7792,7 @@
     </row>
     <row r="68" spans="1:33">
       <c r="A68" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8424,10 +7804,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="F68">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -8451,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>5850</v>
+        <v>5750</v>
       </c>
       <c r="O68">
         <v>50</v>
@@ -8513,7 +7893,7 @@
     </row>
     <row r="69" spans="1:33">
       <c r="A69" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8525,10 +7905,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="F69">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -8552,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="O69">
         <v>50</v>
@@ -8609,17 +7989,118 @@
         <v>50</v>
       </c>
       <c r="AG69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33">
+      <c r="A70" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>5950</v>
+      </c>
+      <c r="F70">
+        <v>5950</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5950</v>
+      </c>
+      <c r="O70">
+        <v>50</v>
+      </c>
+      <c r="P70">
+        <v>55000</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>50</v>
+      </c>
+      <c r="S70">
+        <v>50</v>
+      </c>
+      <c r="T70">
+        <v>50</v>
+      </c>
+      <c r="U70">
+        <v>50</v>
+      </c>
+      <c r="V70">
+        <v>50</v>
+      </c>
+      <c r="W70">
+        <v>50</v>
+      </c>
+      <c r="X70">
+        <v>50</v>
+      </c>
+      <c r="Y70">
+        <v>50</v>
+      </c>
+      <c r="Z70">
+        <v>50</v>
+      </c>
+      <c r="AA70">
+        <v>50</v>
+      </c>
+      <c r="AB70">
+        <v>50</v>
+      </c>
+      <c r="AC70">
+        <v>50</v>
+      </c>
+      <c r="AD70">
+        <v>50</v>
+      </c>
+      <c r="AE70">
+        <v>50</v>
+      </c>
+      <c r="AF70">
+        <v>50</v>
+      </c>
+      <c r="AG70">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:G8 K7:AG8 H7:J8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:AG9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
